--- a/4_classification&evaluation/output/context_integration/evaluation_recall_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_recall_standard_deviation.xlsx
@@ -1156,31 +1156,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8090597117364448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02686846735905493</v>
+        <v>0.04244249481811561</v>
       </c>
       <c r="D6" t="n">
         <v>0.7872340425531915</v>
       </c>
       <c r="E6" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8172043010752689</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.8279569892473119</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.813406543125143</v>
+        <v>0.8091054678563259</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03997068796626782</v>
+        <v>0.03221425817189315</v>
       </c>
       <c r="K6" t="n">
         <v>0.7659574468085106</v>
@@ -1189,94 +1189,94 @@
         <v>0.7849462365591398</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7618165179592772</v>
+        <v>0.7510638297872342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02174937154853861</v>
+        <v>0.0369197168818485</v>
       </c>
       <c r="R6" t="n">
         <v>0.7553191489361702</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="T6" t="n">
+        <v>0.7849462365591398</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6989247311827957</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.7956989247311828</v>
       </c>
-      <c r="U6" t="n">
-        <v>0.7311827956989247</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.7741935483870968</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.7983299016243424</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02788594328912624</v>
+        <v>0.02142832910285819</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7978723404255319</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="AB6" t="n">
+        <v>0.7956989247311828</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.7983070235644018</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.02058547441921889</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.7849462365591398</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.8494623655913979</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.8068862960420956</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0317626579330942</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.7978723404255319</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.7634408602150538</v>
       </c>
       <c r="AH6" t="n">
         <v>0.8172043010752689</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="AJ6" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.8176618622740792</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.04730195882829611</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0.8602150537634409</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0.8176161061541981</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.04942643758661404</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.8085106382978723</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.7311827956989247</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.8279569892473119</v>
-      </c>
       <c r="AP6" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.8817204301075269</v>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8520018302447954</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04752365066556086</v>
+        <v>0.0421345050422935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8191489361702128</v>
+        <v>0.8404255319148937</v>
       </c>
       <c r="E7" t="n">
         <v>0.8064516129032258</v>
@@ -1307,43 +1307,43 @@
         <v>0.8172043010752689</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8712880347746511</v>
+        <v>0.8734156943491191</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04231206730415202</v>
+        <v>0.04471964960591587</v>
       </c>
       <c r="K7" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8617021276595744</v>
       </c>
       <c r="L7" t="n">
         <v>0.8172043010752689</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="O7" t="n">
         <v>0.9354838709677419</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8326698695950583</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0433490398424203</v>
+        <v>0.04089138188946771</v>
       </c>
       <c r="R7" t="n">
         <v>0.8085106382978723</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="U7" t="n">
         <v>0.8172043010752689</v>
@@ -1352,16 +1352,16 @@
         <v>0.9139784946236559</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8797986730725235</v>
+        <v>0.8798215511324641</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04688575819138311</v>
+        <v>0.05330075394402922</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8829787234042553</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="AA7" t="n">
         <v>0.9354838709677419</v>
@@ -1370,19 +1370,19 @@
         <v>0.8709677419354839</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="AD7" t="n">
         <v>0.8605811027224892</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03693729200401573</v>
+        <v>0.03225874598305675</v>
       </c>
       <c r="AF7" t="n">
         <v>0.8297872340425532</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="AH7" t="n">
         <v>0.9032258064516129</v>
@@ -1391,16 +1391,16 @@
         <v>0.8709677419354839</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8625714939373141</v>
+        <v>0.8647449096316633</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.05123856029886754</v>
+        <v>0.04850934267717616</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9042553191489362</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="AN7" t="n">
         <v>0.7741935483870968</v>
@@ -1409,7 +1409,7 @@
         <v>0.9139784946236559</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.8817204301075269</v>
